--- a/data/trans_orig/P37C2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37C2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF506B9E-BE62-4B3D-8A2B-BE66646F7162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4530A15F-8066-45CD-859F-DF9C783C900F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E0CDA167-0D79-4B0C-BAAA-C8B95FB0FBCA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BC7E3994-20BD-4929-B3DC-DC34E8824C68}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="357">
   <si>
     <t>Población según la creencia de que las vacunas son seguras en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -77,949 +77,964 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>Bastante en desacuerdo</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>Bastante en desacuerdo</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
     <t>4,39%</t>
   </si>
   <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
+    <t>8,22%</t>
   </si>
   <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
+    <t>8,27%</t>
   </si>
   <si>
     <t>5,54%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
   </si>
   <si>
     <t>22,01%</t>
   </si>
   <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
   </si>
   <si>
     <t>20,06%</t>
   </si>
   <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
   </si>
   <si>
     <t>21,03%</t>
   </si>
   <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
   </si>
   <si>
     <t>70,69%</t>
   </si>
   <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
   </si>
   <si>
     <t>74,25%</t>
   </si>
   <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
   </si>
   <si>
     <t>72,48%</t>
   </si>
   <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
   </si>
   <si>
     <t>0,36%</t>
   </si>
   <si>
+    <t>0,67%</t>
+  </si>
+  <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
+    <t>6,86%</t>
   </si>
   <si>
     <t>4,47%</t>
@@ -1028,70 +1043,67 @@
     <t>3,77%</t>
   </si>
   <si>
-    <t>5,42%</t>
+    <t>5,36%</t>
   </si>
   <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
   </si>
   <si>
     <t>21,63%</t>
   </si>
   <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
   </si>
   <si>
     <t>19,82%</t>
   </si>
   <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
   </si>
   <si>
     <t>20,67%</t>
   </si>
   <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
+    <t>19,45%</t>
   </si>
   <si>
     <t>71,02%</t>
   </si>
   <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
+    <t>69,24%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
   </si>
   <si>
     <t>74,79%</t>
   </si>
   <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
   </si>
   <si>
     <t>73,01%</t>
   </si>
   <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1506,7 +1518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55ACEEA2-8367-422F-90F3-B0B424F17C8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5B8963-7CE5-4BDE-AC0B-A1300F006F40}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1684,10 +1696,10 @@
         <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -1702,7 +1714,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -1711,19 +1723,19 @@
         <v>4064</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>6</v>
@@ -1732,13 +1744,13 @@
         <v>4261</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -1747,13 +1759,13 @@
         <v>3120</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -1762,19 +1774,19 @@
         <v>7380</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>11</v>
@@ -1783,13 +1795,13 @@
         <v>9855</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -1798,13 +1810,13 @@
         <v>11229</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -1813,19 +1825,19 @@
         <v>21084</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>308</v>
@@ -1834,13 +1846,13 @@
         <v>241125</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>503</v>
@@ -1849,13 +1861,13 @@
         <v>254740</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>811</v>
@@ -1864,13 +1876,13 @@
         <v>495867</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1885,13 +1897,13 @@
         <v>259054</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>537</v>
@@ -1900,13 +1912,13 @@
         <v>270925</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>867</v>
@@ -1915,18 +1927,18 @@
         <v>529980</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1938,13 +1950,13 @@
         <v>1462</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1953,13 +1965,13 @@
         <v>1367</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1971,10 +1983,10 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,10 +2004,10 @@
         <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -2004,13 +2016,13 @@
         <v>4029</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -2019,19 +2031,19 @@
         <v>4029</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7">
         <v>29</v>
@@ -2040,13 +2052,13 @@
         <v>40220</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H12" s="7">
         <v>36</v>
@@ -2055,13 +2067,13 @@
         <v>24454</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>65</v>
@@ -2070,19 +2082,19 @@
         <v>64674</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
         <v>132</v>
@@ -2091,13 +2103,13 @@
         <v>183054</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7">
         <v>216</v>
@@ -2106,13 +2118,13 @@
         <v>160435</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
         <v>348</v>
@@ -2121,19 +2133,19 @@
         <v>343489</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>219</v>
@@ -2142,13 +2154,13 @@
         <v>293492</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>454</v>
@@ -2157,13 +2169,13 @@
         <v>362127</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>673</v>
@@ -2172,13 +2184,13 @@
         <v>655619</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,13 +2205,13 @@
         <v>518227</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
         <v>713</v>
@@ -2208,13 +2220,13 @@
         <v>552412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>1094</v>
@@ -2223,18 +2235,18 @@
         <v>1070639</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2246,13 +2258,13 @@
         <v>1885</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2261,13 +2273,13 @@
         <v>1432</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2276,13 +2288,13 @@
         <v>3317</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,13 +2309,13 @@
         <v>5310</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2312,13 +2324,13 @@
         <v>1787</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -2327,19 +2339,19 @@
         <v>7096</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>109</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>16</v>
@@ -2348,13 +2360,13 @@
         <v>15798</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H18" s="7">
         <v>23</v>
@@ -2363,13 +2375,13 @@
         <v>16440</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -2378,19 +2390,19 @@
         <v>32237</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
         <v>28</v>
@@ -2399,13 +2411,13 @@
         <v>24955</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -2414,13 +2426,13 @@
         <v>23627</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -2429,19 +2441,19 @@
         <v>48583</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>308</v>
@@ -2450,13 +2462,13 @@
         <v>272548</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>465</v>
@@ -2465,13 +2477,13 @@
         <v>322918</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>773</v>
@@ -2480,13 +2492,13 @@
         <v>595467</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2501,13 +2513,13 @@
         <v>320496</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>528</v>
@@ -2516,13 +2528,13 @@
         <v>366204</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>886</v>
@@ -2531,18 +2543,18 @@
         <v>686700</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2557,10 +2569,10 @@
         <v>12</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2569,13 +2581,13 @@
         <v>590</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -2584,13 +2596,13 @@
         <v>590</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,10 +2620,10 @@
         <v>12</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2620,13 +2632,13 @@
         <v>438</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -2635,19 +2647,19 @@
         <v>438</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="7">
         <v>11</v>
@@ -2656,13 +2668,13 @@
         <v>11338</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -2671,13 +2683,13 @@
         <v>7115</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -2686,19 +2698,19 @@
         <v>18452</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
         <v>2</v>
@@ -2707,13 +2719,13 @@
         <v>1217</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2722,13 +2734,13 @@
         <v>18819</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -2737,19 +2749,19 @@
         <v>20036</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>268</v>
@@ -2758,13 +2770,13 @@
         <v>299019</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H26" s="7">
         <v>571</v>
@@ -2773,13 +2785,13 @@
         <v>397494</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M26" s="7">
         <v>839</v>
@@ -2788,13 +2800,13 @@
         <v>696512</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2809,13 +2821,13 @@
         <v>311573</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>592</v>
@@ -2824,13 +2836,13 @@
         <v>424456</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>873</v>
@@ -2839,18 +2851,18 @@
         <v>736029</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2865,10 +2877,10 @@
         <v>12</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2880,10 +2892,10 @@
         <v>12</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2895,10 +2907,10 @@
         <v>12</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,13 +2925,13 @@
         <v>4157</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>60</v>
+        <v>175</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2928,13 +2940,13 @@
         <v>1585</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -2943,19 +2955,19 @@
         <v>5743</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>13</v>
+        <v>178</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>149</v>
+        <v>179</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
         <v>13</v>
@@ -2964,13 +2976,13 @@
         <v>8385</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>175</v>
+        <v>115</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -2979,13 +2991,13 @@
         <v>4476</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="M30" s="7">
         <v>23</v>
@@ -2994,19 +3006,19 @@
         <v>12861</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
         <v>171</v>
@@ -3015,13 +3027,13 @@
         <v>115643</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="H31" s="7">
         <v>364</v>
@@ -3030,13 +3042,13 @@
         <v>171215</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="M31" s="7">
         <v>535</v>
@@ -3045,19 +3057,19 @@
         <v>286858</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
         <v>87</v>
@@ -3066,13 +3078,13 @@
         <v>65680</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="H32" s="7">
         <v>114</v>
@@ -3081,13 +3093,13 @@
         <v>53768</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="M32" s="7">
         <v>201</v>
@@ -3096,13 +3108,13 @@
         <v>119448</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3117,13 +3129,13 @@
         <v>193865</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>490</v>
@@ -3132,13 +3144,13 @@
         <v>231044</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>767</v>
@@ -3147,18 +3159,18 @@
         <v>424910</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3170,13 +3182,13 @@
         <v>4582</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>202</v>
+        <v>126</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3185,13 +3197,13 @@
         <v>696</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -3200,13 +3212,13 @@
         <v>5279</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +3233,13 @@
         <v>8277</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -3236,13 +3248,13 @@
         <v>4079</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>211</v>
+        <v>11</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="M35" s="7">
         <v>13</v>
@@ -3251,19 +3263,19 @@
         <v>12356</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>213</v>
+        <v>30</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C36" s="7">
         <v>26</v>
@@ -3272,13 +3284,13 @@
         <v>23756</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H36" s="7">
         <v>23</v>
@@ -3287,13 +3299,13 @@
         <v>13159</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M36" s="7">
         <v>49</v>
@@ -3302,19 +3314,19 @@
         <v>36914</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
         <v>52</v>
@@ -3323,13 +3335,13 @@
         <v>41391</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="H37" s="7">
         <v>57</v>
@@ -3338,13 +3350,13 @@
         <v>34009</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="M37" s="7">
         <v>109</v>
@@ -3353,19 +3365,19 @@
         <v>75400</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
         <v>280</v>
@@ -3374,13 +3386,13 @@
         <v>199217</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="H38" s="7">
         <v>373</v>
@@ -3389,13 +3401,13 @@
         <v>222069</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="M38" s="7">
         <v>653</v>
@@ -3404,13 +3416,13 @@
         <v>421286</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,13 +3437,13 @@
         <v>277223</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
         <v>458</v>
@@ -3440,13 +3452,13 @@
         <v>274012</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
         <v>829</v>
@@ -3455,18 +3467,18 @@
         <v>551235</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3478,13 +3490,13 @@
         <v>3428</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
@@ -3493,13 +3505,13 @@
         <v>7073</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>145</v>
+        <v>251</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="M40" s="7">
         <v>9</v>
@@ -3508,13 +3520,13 @@
         <v>10502</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>245</v>
+        <v>34</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>145</v>
+        <v>14</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3541,13 @@
         <v>6914</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="H41" s="7">
         <v>7</v>
@@ -3544,13 +3556,13 @@
         <v>4499</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>249</v>
+        <v>143</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>20</v>
+        <v>258</v>
       </c>
       <c r="M41" s="7">
         <v>16</v>
@@ -3559,19 +3571,19 @@
         <v>11412</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C42" s="7">
         <v>35</v>
@@ -3580,13 +3592,13 @@
         <v>40746</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="H42" s="7">
         <v>70</v>
@@ -3595,13 +3607,13 @@
         <v>56242</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="M42" s="7">
         <v>105</v>
@@ -3610,19 +3622,19 @@
         <v>96988</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>261</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C43" s="7">
         <v>162</v>
@@ -3631,13 +3643,13 @@
         <v>161678</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="H43" s="7">
         <v>221</v>
@@ -3646,13 +3658,13 @@
         <v>156907</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="M43" s="7">
         <v>383</v>
@@ -3661,19 +3673,19 @@
         <v>318585</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="7">
         <v>382</v>
@@ -3682,13 +3694,13 @@
         <v>407852</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="H44" s="7">
         <v>646</v>
@@ -3697,13 +3709,13 @@
         <v>573029</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="M44" s="7">
         <v>1028</v>
@@ -3712,13 +3724,13 @@
         <v>980881</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>183</v>
+        <v>285</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3745,13 @@
         <v>620618</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H45" s="7">
         <v>950</v>
@@ -3748,13 +3760,13 @@
         <v>797750</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M45" s="7">
         <v>1541</v>
@@ -3763,18 +3775,18 @@
         <v>1418368</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3789,10 +3801,10 @@
         <v>12</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -3801,13 +3813,13 @@
         <v>696</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -3816,13 +3828,13 @@
         <v>696</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,13 +3849,13 @@
         <v>11147</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>282</v>
+        <v>210</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>283</v>
+        <v>158</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="H47" s="7">
         <v>6</v>
@@ -3852,13 +3864,13 @@
         <v>4636</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>156</v>
+        <v>292</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>285</v>
+        <v>25</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="M47" s="7">
         <v>17</v>
@@ -3867,19 +3879,19 @@
         <v>15784</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>177</v>
+        <v>70</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>249</v>
+        <v>294</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>243</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C48" s="7">
         <v>47</v>
@@ -3888,13 +3900,13 @@
         <v>51489</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>74</v>
+        <v>296</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H48" s="7">
         <v>48</v>
@@ -3903,13 +3915,13 @@
         <v>43929</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>290</v>
+        <v>148</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="M48" s="7">
         <v>95</v>
@@ -3918,19 +3930,19 @@
         <v>95418</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C49" s="7">
         <v>171</v>
@@ -3939,13 +3951,13 @@
         <v>188735</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="H49" s="7">
         <v>214</v>
@@ -3954,13 +3966,13 @@
         <v>173635</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="M49" s="7">
         <v>385</v>
@@ -3969,19 +3981,19 @@
         <v>362370</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C50" s="7">
         <v>532</v>
@@ -3990,13 +4002,13 @@
         <v>606221</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="H50" s="7">
         <v>792</v>
@@ -4005,13 +4017,13 @@
         <v>642776</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="M50" s="7">
         <v>1324</v>
@@ -4020,13 +4032,13 @@
         <v>1248997</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,13 +4053,13 @@
         <v>857593</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H51" s="7">
         <v>1061</v>
@@ -4056,13 +4068,13 @@
         <v>865672</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M51" s="7">
         <v>1822</v>
@@ -4071,13 +4083,13 @@
         <v>1723265</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4106,13 @@
         <v>12031</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="H52" s="7">
         <v>16</v>
@@ -4112,10 +4124,10 @@
         <v>14</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>316</v>
+        <v>179</v>
       </c>
       <c r="M52" s="7">
         <v>27</v>
@@ -4124,13 +4136,13 @@
         <v>24798</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>317</v>
+        <v>25</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>30</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4157,13 @@
         <v>38945</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>318</v>
+        <v>293</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H53" s="7">
         <v>30</v>
@@ -4160,13 +4172,13 @@
         <v>21977</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>322</v>
+        <v>101</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="M53" s="7">
         <v>73</v>
@@ -4175,19 +4187,19 @@
         <v>60922</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>143</v>
+        <v>329</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C54" s="7">
         <v>183</v>
@@ -4196,13 +4208,13 @@
         <v>195992</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>326</v>
+        <v>113</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="H54" s="7">
         <v>227</v>
@@ -4211,13 +4223,13 @@
         <v>168934</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="M54" s="7">
         <v>410</v>
@@ -4226,19 +4238,19 @@
         <v>364925</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C55" s="7">
         <v>729</v>
@@ -4247,13 +4259,13 @@
         <v>726527</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="H55" s="7">
         <v>1138</v>
@@ -4262,13 +4274,13 @@
         <v>749876</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="M55" s="7">
         <v>1867</v>
@@ -4277,19 +4289,19 @@
         <v>1476403</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>342</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C56" s="7">
         <v>2384</v>
@@ -4298,13 +4310,13 @@
         <v>2385155</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="H56" s="7">
         <v>3918</v>
@@ -4313,13 +4325,13 @@
         <v>2828922</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="M56" s="7">
         <v>6302</v>
@@ -4328,13 +4340,13 @@
         <v>5214077</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,13 +4361,13 @@
         <v>3358650</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H57" s="7">
         <v>5329</v>
@@ -4364,13 +4376,13 @@
         <v>3782476</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M57" s="7">
         <v>8679</v>
@@ -4379,18 +4391,18 @@
         <v>7141126</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37C2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37C2_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4530A15F-8066-45CD-859F-DF9C783C900F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25627106-DAF9-45A3-8232-4389F15F3238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BC7E3994-20BD-4929-B3DC-DC34E8824C68}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{66F8802F-FE02-4F17-8774-6BCF8969908E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1518,7 +1518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB5B8963-7CE5-4BDE-AC0B-A1300F006F40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DC99B9-C09F-4102-BDEF-E9B38ECA9798}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P37C2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37C2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25627106-DAF9-45A3-8232-4389F15F3238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CD18297-6F5F-4198-B188-10D96E637A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{66F8802F-FE02-4F17-8774-6BCF8969908E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{27BC4A01-4415-4345-93AA-0A4001507F55}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="353">
   <si>
     <t>Población según la creencia de que las vacunas son seguras en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -77,13 +77,13 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>1,74%</t>
+    <t>1,35%</t>
   </si>
   <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,69%</t>
+    <t>1,68%</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -92,7 +92,7 @@
     <t>0,03%</t>
   </si>
   <si>
-    <t>0,98%</t>
+    <t>1,02%</t>
   </si>
   <si>
     <t>Bastante en desacuerdo</t>
@@ -101,940 +101,925 @@
     <t>1,21%</t>
   </si>
   <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>32,08%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>65,55%</t>
+  </si>
+  <si>
+    <t>61,92%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>61,24%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>83,75%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>68,87%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>63,68%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>66,24%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>77,77%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>61,96%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>58,13%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
   </si>
   <si>
     <t>0,61%</t>
   </si>
   <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>66,32%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>65,52%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
     <t>0,22%</t>
   </si>
   <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
   </si>
   <si>
     <t>0,85%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>1,08%</t>
   </si>
   <si>
     <t>5,84%</t>
   </si>
   <si>
-    <t>6,86%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
   </si>
   <si>
     <t>4,47%</t>
@@ -1043,67 +1028,70 @@
     <t>3,77%</t>
   </si>
   <si>
-    <t>5,36%</t>
+    <t>5,42%</t>
   </si>
   <si>
     <t>5,11%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
   </si>
   <si>
     <t>21,63%</t>
   </si>
   <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
   </si>
   <si>
     <t>19,82%</t>
   </si>
   <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
   </si>
   <si>
     <t>20,67%</t>
   </si>
   <si>
-    <t>19,45%</t>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
   </si>
   <si>
     <t>71,02%</t>
   </si>
   <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>73,36%</t>
+    <t>69,22%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
   </si>
   <si>
     <t>74,79%</t>
   </si>
   <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
   </si>
   <si>
     <t>73,01%</t>
   </si>
   <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1518,7 +1506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32DC99B9-C09F-4102-BDEF-E9B38ECA9798}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C891F1C2-F2C3-49E1-8917-79544C5E9247}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1696,10 +1684,10 @@
         <v>20</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -1714,7 +1702,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>6</v>
@@ -1723,19 +1711,19 @@
         <v>4064</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>6</v>
@@ -1744,13 +1732,13 @@
         <v>4261</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
@@ -1759,13 +1747,13 @@
         <v>3120</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -1774,19 +1762,19 @@
         <v>7380</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="7">
         <v>11</v>
@@ -1795,13 +1783,13 @@
         <v>9855</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
@@ -1810,13 +1798,13 @@
         <v>11229</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
@@ -1825,19 +1813,19 @@
         <v>21084</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="7">
         <v>308</v>
@@ -1846,13 +1834,13 @@
         <v>241125</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>503</v>
@@ -1861,13 +1849,13 @@
         <v>254740</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>811</v>
@@ -1876,13 +1864,13 @@
         <v>495867</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1897,13 +1885,13 @@
         <v>259054</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" s="7">
         <v>537</v>
@@ -1912,13 +1900,13 @@
         <v>270925</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M9" s="7">
         <v>867</v>
@@ -1927,18 +1915,18 @@
         <v>529980</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1950,13 +1938,13 @@
         <v>1462</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -1965,13 +1953,13 @@
         <v>1367</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -1983,10 +1971,10 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,10 +1992,10 @@
         <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -2016,13 +2004,13 @@
         <v>4029</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -2031,19 +2019,19 @@
         <v>4029</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7">
         <v>29</v>
@@ -2052,13 +2040,13 @@
         <v>40220</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H12" s="7">
         <v>36</v>
@@ -2067,13 +2055,13 @@
         <v>24454</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M12" s="7">
         <v>65</v>
@@ -2082,19 +2070,19 @@
         <v>64674</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="7">
         <v>132</v>
@@ -2103,13 +2091,13 @@
         <v>183054</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H13" s="7">
         <v>216</v>
@@ -2118,13 +2106,13 @@
         <v>160435</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M13" s="7">
         <v>348</v>
@@ -2133,19 +2121,19 @@
         <v>343489</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="7">
         <v>219</v>
@@ -2154,13 +2142,13 @@
         <v>293492</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>454</v>
@@ -2169,13 +2157,13 @@
         <v>362127</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>673</v>
@@ -2184,13 +2172,13 @@
         <v>655619</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2205,13 +2193,13 @@
         <v>518227</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H15" s="7">
         <v>713</v>
@@ -2220,13 +2208,13 @@
         <v>552412</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M15" s="7">
         <v>1094</v>
@@ -2235,18 +2223,18 @@
         <v>1070639</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2258,13 +2246,13 @@
         <v>1885</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2273,13 +2261,13 @@
         <v>1432</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
@@ -2288,13 +2276,13 @@
         <v>3317</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2309,13 +2297,13 @@
         <v>5310</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -2324,13 +2312,13 @@
         <v>1787</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -2339,19 +2327,19 @@
         <v>7096</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>16</v>
@@ -2360,13 +2348,13 @@
         <v>15798</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="H18" s="7">
         <v>23</v>
@@ -2375,13 +2363,13 @@
         <v>16440</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>117</v>
+        <v>43</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
@@ -2390,19 +2378,19 @@
         <v>32237</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="7">
         <v>28</v>
@@ -2411,13 +2399,13 @@
         <v>24955</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
@@ -2426,13 +2414,13 @@
         <v>23627</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
@@ -2441,19 +2429,19 @@
         <v>48583</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="7">
         <v>308</v>
@@ -2462,13 +2450,13 @@
         <v>272548</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H20" s="7">
         <v>465</v>
@@ -2477,13 +2465,13 @@
         <v>322918</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="M20" s="7">
         <v>773</v>
@@ -2492,13 +2480,13 @@
         <v>595467</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2513,13 +2501,13 @@
         <v>320496</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H21" s="7">
         <v>528</v>
@@ -2528,13 +2516,13 @@
         <v>366204</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M21" s="7">
         <v>886</v>
@@ -2543,18 +2531,18 @@
         <v>686700</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2569,10 +2557,10 @@
         <v>12</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2581,13 +2569,13 @@
         <v>590</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
@@ -2596,13 +2584,13 @@
         <v>590</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>68</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,10 +2608,10 @@
         <v>12</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2632,13 +2620,13 @@
         <v>438</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
@@ -2647,19 +2635,19 @@
         <v>438</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" s="7">
         <v>11</v>
@@ -2668,13 +2656,13 @@
         <v>11338</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
@@ -2683,13 +2671,13 @@
         <v>7115</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -2698,19 +2686,19 @@
         <v>18452</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7">
         <v>2</v>
@@ -2719,13 +2707,13 @@
         <v>1217</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2734,13 +2722,13 @@
         <v>18819</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -2749,19 +2737,19 @@
         <v>20036</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="7">
         <v>268</v>
@@ -2770,13 +2758,13 @@
         <v>299019</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H26" s="7">
         <v>571</v>
@@ -2785,13 +2773,13 @@
         <v>397494</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M26" s="7">
         <v>839</v>
@@ -2800,13 +2788,13 @@
         <v>696512</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,13 +2809,13 @@
         <v>311573</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H27" s="7">
         <v>592</v>
@@ -2836,13 +2824,13 @@
         <v>424456</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M27" s="7">
         <v>873</v>
@@ -2851,18 +2839,18 @@
         <v>736029</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2877,10 +2865,10 @@
         <v>12</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2892,10 +2880,10 @@
         <v>12</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2907,10 +2895,10 @@
         <v>12</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,13 +2913,13 @@
         <v>4157</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>175</v>
+        <v>60</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -2940,13 +2928,13 @@
         <v>1585</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
@@ -2955,19 +2943,19 @@
         <v>5743</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>178</v>
+        <v>13</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>13</v>
@@ -2976,13 +2964,13 @@
         <v>8385</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>115</v>
+        <v>175</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -2991,13 +2979,13 @@
         <v>4476</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="M30" s="7">
         <v>23</v>
@@ -3006,19 +2994,19 @@
         <v>12861</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>187</v>
+        <v>37</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C31" s="7">
         <v>171</v>
@@ -3027,13 +3015,13 @@
         <v>115643</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H31" s="7">
         <v>364</v>
@@ -3042,13 +3030,13 @@
         <v>171215</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="M31" s="7">
         <v>535</v>
@@ -3057,19 +3045,19 @@
         <v>286858</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7">
         <v>87</v>
@@ -3078,13 +3066,13 @@
         <v>65680</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H32" s="7">
         <v>114</v>
@@ -3093,13 +3081,13 @@
         <v>53768</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="M32" s="7">
         <v>201</v>
@@ -3108,13 +3096,13 @@
         <v>119448</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,13 +3117,13 @@
         <v>193865</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H33" s="7">
         <v>490</v>
@@ -3144,13 +3132,13 @@
         <v>231044</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M33" s="7">
         <v>767</v>
@@ -3159,18 +3147,18 @@
         <v>424910</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3182,13 +3170,13 @@
         <v>4582</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>126</v>
+        <v>202</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
@@ -3197,13 +3185,13 @@
         <v>696</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -3212,13 +3200,13 @@
         <v>5279</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +3221,13 @@
         <v>8277</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
@@ -3248,13 +3236,13 @@
         <v>4079</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>11</v>
+        <v>211</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="M35" s="7">
         <v>13</v>
@@ -3263,19 +3251,19 @@
         <v>12356</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>30</v>
+        <v>213</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="7">
         <v>26</v>
@@ -3284,13 +3272,13 @@
         <v>23756</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H36" s="7">
         <v>23</v>
@@ -3299,13 +3287,13 @@
         <v>13159</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="M36" s="7">
         <v>49</v>
@@ -3314,19 +3302,19 @@
         <v>36914</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>226</v>
+        <v>110</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" s="7">
         <v>52</v>
@@ -3335,13 +3323,13 @@
         <v>41391</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H37" s="7">
         <v>57</v>
@@ -3350,13 +3338,13 @@
         <v>34009</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="M37" s="7">
         <v>109</v>
@@ -3365,19 +3353,19 @@
         <v>75400</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C38" s="7">
         <v>280</v>
@@ -3386,13 +3374,13 @@
         <v>199217</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H38" s="7">
         <v>373</v>
@@ -3401,13 +3389,13 @@
         <v>222069</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="M38" s="7">
         <v>653</v>
@@ -3416,13 +3404,13 @@
         <v>421286</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,13 +3425,13 @@
         <v>277223</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H39" s="7">
         <v>458</v>
@@ -3452,13 +3440,13 @@
         <v>274012</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M39" s="7">
         <v>829</v>
@@ -3467,18 +3455,18 @@
         <v>551235</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3490,13 +3478,13 @@
         <v>3428</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
@@ -3505,13 +3493,13 @@
         <v>7073</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>251</v>
+        <v>145</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>252</v>
+        <v>169</v>
       </c>
       <c r="M40" s="7">
         <v>9</v>
@@ -3520,13 +3508,13 @@
         <v>10502</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>34</v>
+        <v>245</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3529,13 @@
         <v>6914</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>255</v>
+        <v>27</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="H41" s="7">
         <v>7</v>
@@ -3556,13 +3544,13 @@
         <v>4499</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>143</v>
+        <v>249</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>258</v>
+        <v>20</v>
       </c>
       <c r="M41" s="7">
         <v>16</v>
@@ -3571,19 +3559,19 @@
         <v>11412</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>149</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C42" s="7">
         <v>35</v>
@@ -3592,13 +3580,13 @@
         <v>40746</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H42" s="7">
         <v>70</v>
@@ -3607,13 +3595,13 @@
         <v>56242</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="M42" s="7">
         <v>105</v>
@@ -3622,19 +3610,19 @@
         <v>96988</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>115</v>
+        <v>261</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="7">
         <v>162</v>
@@ -3643,13 +3631,13 @@
         <v>161678</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="H43" s="7">
         <v>221</v>
@@ -3658,13 +3646,13 @@
         <v>156907</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="M43" s="7">
         <v>383</v>
@@ -3673,19 +3661,19 @@
         <v>318585</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C44" s="7">
         <v>382</v>
@@ -3694,13 +3682,13 @@
         <v>407852</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="H44" s="7">
         <v>646</v>
@@ -3709,13 +3697,13 @@
         <v>573029</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="M44" s="7">
         <v>1028</v>
@@ -3724,13 +3712,13 @@
         <v>980881</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>285</v>
+        <v>183</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3733,13 @@
         <v>620618</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H45" s="7">
         <v>950</v>
@@ -3760,13 +3748,13 @@
         <v>797750</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M45" s="7">
         <v>1541</v>
@@ -3775,18 +3763,18 @@
         <v>1418368</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3801,10 +3789,10 @@
         <v>12</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
@@ -3813,13 +3801,13 @@
         <v>696</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
@@ -3828,13 +3816,13 @@
         <v>696</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3837,13 @@
         <v>11147</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>210</v>
+        <v>282</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>158</v>
+        <v>283</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="H47" s="7">
         <v>6</v>
@@ -3864,13 +3852,13 @@
         <v>4636</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>292</v>
+        <v>156</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>25</v>
+        <v>285</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="M47" s="7">
         <v>17</v>
@@ -3879,19 +3867,19 @@
         <v>15784</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>70</v>
+        <v>177</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>294</v>
+        <v>249</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>295</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C48" s="7">
         <v>47</v>
@@ -3900,13 +3888,13 @@
         <v>51489</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>296</v>
+        <v>74</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="H48" s="7">
         <v>48</v>
@@ -3915,13 +3903,13 @@
         <v>43929</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>148</v>
+        <v>290</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="M48" s="7">
         <v>95</v>
@@ -3930,19 +3918,19 @@
         <v>95418</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C49" s="7">
         <v>171</v>
@@ -3951,13 +3939,13 @@
         <v>188735</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="H49" s="7">
         <v>214</v>
@@ -3966,13 +3954,13 @@
         <v>173635</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="M49" s="7">
         <v>385</v>
@@ -3981,19 +3969,19 @@
         <v>362370</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C50" s="7">
         <v>532</v>
@@ -4002,13 +3990,13 @@
         <v>606221</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="H50" s="7">
         <v>792</v>
@@ -4017,13 +4005,13 @@
         <v>642776</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="M50" s="7">
         <v>1324</v>
@@ -4032,13 +4020,13 @@
         <v>1248997</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4053,13 +4041,13 @@
         <v>857593</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H51" s="7">
         <v>1061</v>
@@ -4068,13 +4056,13 @@
         <v>865672</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M51" s="7">
         <v>1822</v>
@@ -4083,13 +4071,13 @@
         <v>1723265</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4094,13 @@
         <v>12031</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>257</v>
+        <v>314</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H52" s="7">
         <v>16</v>
@@ -4124,10 +4112,10 @@
         <v>14</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>179</v>
+        <v>316</v>
       </c>
       <c r="M52" s="7">
         <v>27</v>
@@ -4136,13 +4124,13 @@
         <v>24798</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>25</v>
+        <v>317</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>294</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4145,13 @@
         <v>38945</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="H53" s="7">
         <v>30</v>
@@ -4172,13 +4160,13 @@
         <v>21977</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>101</v>
+        <v>322</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="M53" s="7">
         <v>73</v>
@@ -4187,19 +4175,19 @@
         <v>60922</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>329</v>
+        <v>143</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C54" s="7">
         <v>183</v>
@@ -4208,13 +4196,13 @@
         <v>195992</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>113</v>
+        <v>326</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="H54" s="7">
         <v>227</v>
@@ -4223,13 +4211,13 @@
         <v>168934</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M54" s="7">
         <v>410</v>
@@ -4238,19 +4226,19 @@
         <v>364925</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C55" s="7">
         <v>729</v>
@@ -4259,13 +4247,13 @@
         <v>726527</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H55" s="7">
         <v>1138</v>
@@ -4274,13 +4262,13 @@
         <v>749876</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="M55" s="7">
         <v>1867</v>
@@ -4289,19 +4277,19 @@
         <v>1476403</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>270</v>
+        <v>342</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C56" s="7">
         <v>2384</v>
@@ -4310,13 +4298,13 @@
         <v>2385155</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H56" s="7">
         <v>3918</v>
@@ -4325,13 +4313,13 @@
         <v>2828922</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="M56" s="7">
         <v>6302</v>
@@ -4340,13 +4328,13 @@
         <v>5214077</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4361,13 +4349,13 @@
         <v>3358650</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H57" s="7">
         <v>5329</v>
@@ -4376,13 +4364,13 @@
         <v>3782476</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M57" s="7">
         <v>8679</v>
@@ -4391,18 +4379,18 @@
         <v>7141126</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37C2_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37C2_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2CD18297-6F5F-4198-B188-10D96E637A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CA3784A-F5CB-4BE6-9908-E329676E2924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{27BC4A01-4415-4345-93AA-0A4001507F55}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A04CE127-6499-430D-86FF-5E28BC3830D3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="343">
   <si>
     <t>Población según la creencia de que las vacunas son seguras en 2023 (Tasa respuesta: 99,27%)</t>
   </si>
@@ -71,1027 +71,997 @@
     <t>Totalmente en desacuerdo</t>
   </si>
   <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>Bastante en desacuerdo</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>Ni de acuerdo ni en desacuerdo</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>Bastante de acuerdo</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>Totalmente de acuerdo</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
     <t>0,26%</t>
   </si>
   <si>
-    <t>0,0%</t>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>65,47%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>61,0%</t>
+  </si>
+  <si>
+    <t>57,56%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>84,91%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>66,32%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>Bastante en desacuerdo</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>Ni de acuerdo ni en desacuerdo</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>Bastante de acuerdo</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>Totalmente de acuerdo</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>32,08%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>65,55%</t>
-  </si>
-  <si>
-    <t>61,92%</t>
-  </si>
-  <si>
-    <t>69,02%</t>
-  </si>
-  <si>
-    <t>61,24%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
+    <t>0,61%</t>
   </si>
   <si>
     <t>1,03%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>83,75%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>52,5%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>63,68%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
   </si>
   <si>
     <t>4,2%</t>
   </si>
   <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>77,77%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>76,18%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>75,4%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>69,22%</t>
-  </si>
-  <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>73,12%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1506,7 +1476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C891F1C2-F2C3-49E1-8917-79544C5E9247}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2C65C6-C64C-418D-AACD-A5EA038783F2}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1627,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>674</v>
+        <v>725</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1642,7 +1612,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>912</v>
+        <v>919</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1657,7 +1627,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>1586</v>
+        <v>1644</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1678,7 +1648,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>3139</v>
+        <v>3719</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>20</v>
@@ -1693,7 +1663,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>14</v>
@@ -1708,169 +1678,169 @@
         <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>4064</v>
+        <v>4654</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
         <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>4261</v>
+        <v>4950</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H6" s="7">
         <v>7</v>
       </c>
       <c r="I6" s="7">
-        <v>3120</v>
+        <v>3212</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>7380</v>
+        <v>8162</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C7" s="7">
         <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>9855</v>
+        <v>11310</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>23</v>
       </c>
       <c r="I7" s="7">
-        <v>11229</v>
+        <v>11783</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M7" s="7">
         <v>34</v>
       </c>
       <c r="N7" s="7">
-        <v>21084</v>
+        <v>23093</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7">
         <v>308</v>
       </c>
       <c r="D8" s="7">
-        <v>241125</v>
+        <v>289180</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
         <v>503</v>
       </c>
       <c r="I8" s="7">
-        <v>254740</v>
+        <v>272293</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M8" s="7">
         <v>811</v>
       </c>
       <c r="N8" s="7">
-        <v>495867</v>
+        <v>561473</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1882,51 +1852,51 @@
         <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>259054</v>
+        <v>309885</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H9" s="7">
         <v>537</v>
       </c>
       <c r="I9" s="7">
-        <v>270925</v>
+        <v>289142</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>867</v>
       </c>
       <c r="N9" s="7">
-        <v>529980</v>
+        <v>599027</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1935,25 +1905,25 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1462</v>
+        <v>1495</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>1367</v>
+        <v>1283</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>12</v>
@@ -1965,16 +1935,16 @@
         <v>3</v>
       </c>
       <c r="N10" s="7">
-        <v>2829</v>
+        <v>2778</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,193 +1962,193 @@
         <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
       </c>
       <c r="I11" s="7">
-        <v>4029</v>
+        <v>3842</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>4029</v>
+        <v>3842</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7">
         <v>29</v>
       </c>
       <c r="D12" s="7">
-        <v>40220</v>
+        <v>39959</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>36</v>
       </c>
       <c r="I12" s="7">
-        <v>24454</v>
+        <v>22643</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>65</v>
       </c>
       <c r="N12" s="7">
-        <v>64674</v>
+        <v>62602</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="7">
         <v>132</v>
       </c>
       <c r="D13" s="7">
-        <v>183054</v>
+        <v>183227</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>216</v>
       </c>
       <c r="I13" s="7">
-        <v>160435</v>
+        <v>149368</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>348</v>
       </c>
       <c r="N13" s="7">
-        <v>343489</v>
+        <v>332595</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" s="7">
         <v>219</v>
       </c>
       <c r="D14" s="7">
-        <v>293492</v>
+        <v>292711</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>454</v>
       </c>
       <c r="I14" s="7">
-        <v>362127</v>
+        <v>335870</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>673</v>
       </c>
       <c r="N14" s="7">
-        <v>655619</v>
+        <v>628581</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2190,51 +2160,51 @@
         <v>381</v>
       </c>
       <c r="D15" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H15" s="7">
         <v>713</v>
       </c>
       <c r="I15" s="7">
-        <v>552412</v>
+        <v>513006</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M15" s="7">
         <v>1094</v>
       </c>
       <c r="N15" s="7">
-        <v>1070639</v>
+        <v>1030399</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2243,46 +2213,46 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>1885</v>
+        <v>1874</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>1432</v>
+        <v>1339</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M16" s="7">
         <v>4</v>
       </c>
       <c r="N16" s="7">
-        <v>3317</v>
+        <v>3213</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2294,37 +2264,37 @@
         <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>5310</v>
+        <v>5378</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>1787</v>
+        <v>1643</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
       </c>
       <c r="N17" s="7">
-        <v>7096</v>
+        <v>7021</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>108</v>
@@ -2333,160 +2303,160 @@
         <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>16</v>
       </c>
       <c r="D18" s="7">
-        <v>15798</v>
+        <v>15681</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H18" s="7">
         <v>23</v>
       </c>
       <c r="I18" s="7">
-        <v>16440</v>
+        <v>15363</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>39</v>
       </c>
       <c r="N18" s="7">
-        <v>32237</v>
+        <v>31045</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" s="7">
         <v>28</v>
       </c>
       <c r="D19" s="7">
-        <v>24955</v>
+        <v>24521</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>35</v>
       </c>
       <c r="I19" s="7">
-        <v>23627</v>
+        <v>21786</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>63</v>
       </c>
       <c r="N19" s="7">
-        <v>48583</v>
+        <v>46308</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="7">
         <v>308</v>
       </c>
       <c r="D20" s="7">
-        <v>272548</v>
+        <v>266924</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>465</v>
       </c>
       <c r="I20" s="7">
-        <v>322918</v>
+        <v>302030</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>773</v>
       </c>
       <c r="N20" s="7">
-        <v>595467</v>
+        <v>568953</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,51 +2468,51 @@
         <v>358</v>
       </c>
       <c r="D21" s="7">
-        <v>320496</v>
+        <v>314379</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>528</v>
       </c>
       <c r="I21" s="7">
-        <v>366204</v>
+        <v>342162</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M21" s="7">
         <v>886</v>
       </c>
       <c r="N21" s="7">
-        <v>686700</v>
+        <v>656540</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2557,31 +2527,31 @@
         <v>12</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>590</v>
+        <v>567</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="M22" s="7">
         <v>2</v>
       </c>
       <c r="N22" s="7">
-        <v>590</v>
+        <v>567</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>140</v>
@@ -2590,7 +2560,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,193 +2578,193 @@
         <v>12</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
       </c>
       <c r="I23" s="7">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M23" s="7">
         <v>1</v>
       </c>
       <c r="N23" s="7">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>145</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="7">
         <v>11</v>
       </c>
       <c r="D24" s="7">
-        <v>11338</v>
+        <v>9686</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H24" s="7">
         <v>10</v>
       </c>
       <c r="I24" s="7">
-        <v>7115</v>
+        <v>6992</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>149</v>
+        <v>31</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
       </c>
       <c r="N24" s="7">
-        <v>18452</v>
+        <v>16678</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="7">
         <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>1217</v>
+        <v>1165</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
       </c>
       <c r="I25" s="7">
-        <v>18819</v>
+        <v>72994</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>72</v>
+        <v>151</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
       </c>
       <c r="N25" s="7">
-        <v>20036</v>
+        <v>74159</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C26" s="7">
         <v>268</v>
       </c>
       <c r="D26" s="7">
-        <v>299019</v>
+        <v>291541</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H26" s="7">
         <v>571</v>
       </c>
       <c r="I26" s="7">
-        <v>397494</v>
+        <v>390868</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M26" s="7">
         <v>839</v>
       </c>
       <c r="N26" s="7">
-        <v>696512</v>
+        <v>682409</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2806,51 +2776,51 @@
         <v>281</v>
       </c>
       <c r="D27" s="7">
-        <v>311573</v>
+        <v>302391</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H27" s="7">
         <v>592</v>
       </c>
       <c r="I27" s="7">
-        <v>424456</v>
+        <v>471840</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M27" s="7">
         <v>873</v>
       </c>
       <c r="N27" s="7">
-        <v>736029</v>
+        <v>774232</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2865,10 +2835,10 @@
         <v>12</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2880,10 +2850,10 @@
         <v>12</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -2895,10 +2865,10 @@
         <v>12</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2910,199 +2880,199 @@
         <v>6</v>
       </c>
       <c r="D29" s="7">
-        <v>4157</v>
+        <v>3794</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>170</v>
+        <v>117</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
       </c>
       <c r="I29" s="7">
-        <v>1585</v>
+        <v>1344</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>8</v>
       </c>
       <c r="N29" s="7">
-        <v>5743</v>
+        <v>5138</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>149</v>
+        <v>98</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
         <v>13</v>
       </c>
       <c r="D30" s="7">
-        <v>8385</v>
+        <v>7560</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
       </c>
       <c r="I30" s="7">
-        <v>4476</v>
+        <v>4053</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M30" s="7">
         <v>23</v>
       </c>
       <c r="N30" s="7">
-        <v>12861</v>
+        <v>11613</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>37</v>
+        <v>172</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C31" s="7">
         <v>171</v>
       </c>
       <c r="D31" s="7">
-        <v>115643</v>
+        <v>105561</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H31" s="7">
         <v>364</v>
       </c>
       <c r="I31" s="7">
-        <v>171215</v>
+        <v>154006</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M31" s="7">
         <v>535</v>
       </c>
       <c r="N31" s="7">
-        <v>286858</v>
+        <v>259567</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C32" s="7">
         <v>87</v>
       </c>
       <c r="D32" s="7">
-        <v>65680</v>
+        <v>59374</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H32" s="7">
         <v>114</v>
       </c>
       <c r="I32" s="7">
-        <v>53768</v>
+        <v>48459</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="M32" s="7">
         <v>201</v>
       </c>
       <c r="N32" s="7">
-        <v>119448</v>
+        <v>107833</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,51 +3084,51 @@
         <v>277</v>
       </c>
       <c r="D33" s="7">
-        <v>193865</v>
+        <v>176288</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H33" s="7">
         <v>490</v>
       </c>
       <c r="I33" s="7">
-        <v>231044</v>
+        <v>207862</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M33" s="7">
         <v>767</v>
       </c>
       <c r="N33" s="7">
-        <v>424910</v>
+        <v>384150</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3167,46 +3137,46 @@
         <v>4</v>
       </c>
       <c r="D34" s="7">
-        <v>4582</v>
+        <v>4513</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H34" s="7">
         <v>1</v>
       </c>
       <c r="I34" s="7">
-        <v>696</v>
+        <v>641</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
       </c>
       <c r="N34" s="7">
-        <v>5279</v>
+        <v>5154</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,199 +3188,199 @@
         <v>9</v>
       </c>
       <c r="D35" s="7">
-        <v>8277</v>
+        <v>8184</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H35" s="7">
         <v>4</v>
       </c>
       <c r="I35" s="7">
-        <v>4079</v>
+        <v>3678</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>210</v>
+        <v>59</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>211</v>
+        <v>58</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="M35" s="7">
         <v>13</v>
       </c>
       <c r="N35" s="7">
-        <v>12356</v>
+        <v>11862</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C36" s="7">
         <v>26</v>
       </c>
       <c r="D36" s="7">
-        <v>23756</v>
+        <v>23355</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="H36" s="7">
         <v>23</v>
       </c>
       <c r="I36" s="7">
-        <v>13159</v>
+        <v>12405</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="M36" s="7">
         <v>49</v>
       </c>
       <c r="N36" s="7">
-        <v>36914</v>
+        <v>35759</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>110</v>
+        <v>214</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" s="7">
         <v>52</v>
       </c>
       <c r="D37" s="7">
-        <v>41391</v>
+        <v>40422</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="H37" s="7">
         <v>57</v>
       </c>
       <c r="I37" s="7">
-        <v>34009</v>
+        <v>31942</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="M37" s="7">
         <v>109</v>
       </c>
       <c r="N37" s="7">
-        <v>75400</v>
+        <v>72364</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38" s="7">
         <v>280</v>
       </c>
       <c r="D38" s="7">
-        <v>199217</v>
+        <v>193163</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H38" s="7">
         <v>373</v>
       </c>
       <c r="I38" s="7">
-        <v>222069</v>
+        <v>206913</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="M38" s="7">
         <v>653</v>
       </c>
       <c r="N38" s="7">
-        <v>421286</v>
+        <v>400075</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,51 +3392,51 @@
         <v>371</v>
       </c>
       <c r="D39" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H39" s="7">
         <v>458</v>
       </c>
       <c r="I39" s="7">
-        <v>274012</v>
+        <v>255579</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M39" s="7">
         <v>829</v>
       </c>
       <c r="N39" s="7">
-        <v>551235</v>
+        <v>525215</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -3475,46 +3445,46 @@
         <v>3</v>
       </c>
       <c r="D40" s="7">
-        <v>3428</v>
+        <v>3449</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H40" s="7">
         <v>6</v>
       </c>
       <c r="I40" s="7">
-        <v>7073</v>
+        <v>6604</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>244</v>
+        <v>23</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>145</v>
+        <v>238</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>169</v>
+        <v>239</v>
       </c>
       <c r="M40" s="7">
         <v>9</v>
       </c>
       <c r="N40" s="7">
-        <v>10502</v>
+        <v>10052</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>245</v>
+        <v>166</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>145</v>
+        <v>65</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>246</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3526,199 +3496,199 @@
         <v>9</v>
       </c>
       <c r="D41" s="7">
-        <v>6914</v>
+        <v>6700</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="H41" s="7">
         <v>7</v>
       </c>
       <c r="I41" s="7">
-        <v>4499</v>
+        <v>4279</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M41" s="7">
         <v>16</v>
       </c>
       <c r="N41" s="7">
-        <v>11412</v>
+        <v>10979</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>251</v>
+        <v>64</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>252</v>
+        <v>67</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>32</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C42" s="7">
         <v>35</v>
       </c>
       <c r="D42" s="7">
-        <v>40746</v>
+        <v>40320</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="H42" s="7">
         <v>70</v>
       </c>
       <c r="I42" s="7">
-        <v>56242</v>
+        <v>52269</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="M42" s="7">
         <v>105</v>
       </c>
       <c r="N42" s="7">
-        <v>96988</v>
+        <v>92589</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C43" s="7">
         <v>162</v>
       </c>
       <c r="D43" s="7">
-        <v>161678</v>
+        <v>160152</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="H43" s="7">
         <v>221</v>
       </c>
       <c r="I43" s="7">
-        <v>156907</v>
+        <v>146102</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="M43" s="7">
         <v>383</v>
       </c>
       <c r="N43" s="7">
-        <v>318585</v>
+        <v>306254</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44" s="7">
         <v>382</v>
       </c>
       <c r="D44" s="7">
-        <v>407852</v>
+        <v>406673</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="H44" s="7">
         <v>646</v>
       </c>
       <c r="I44" s="7">
-        <v>573029</v>
+        <v>634271</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="M44" s="7">
         <v>1028</v>
       </c>
       <c r="N44" s="7">
-        <v>980881</v>
+        <v>1040944</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>183</v>
+        <v>270</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,51 +3700,51 @@
         <v>591</v>
       </c>
       <c r="D45" s="7">
-        <v>620618</v>
+        <v>617294</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H45" s="7">
         <v>950</v>
       </c>
       <c r="I45" s="7">
-        <v>797750</v>
+        <v>843524</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M45" s="7">
         <v>1541</v>
       </c>
       <c r="N45" s="7">
-        <v>1418368</v>
+        <v>1460818</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -3789,40 +3759,40 @@
         <v>12</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="H46" s="7">
         <v>1</v>
       </c>
       <c r="I46" s="7">
-        <v>696</v>
+        <v>595</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>140</v>
+        <v>273</v>
       </c>
       <c r="K46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>280</v>
+        <v>106</v>
       </c>
       <c r="M46" s="7">
         <v>1</v>
       </c>
       <c r="N46" s="7">
-        <v>696</v>
+        <v>595</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="P46" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,199 +3804,199 @@
         <v>11</v>
       </c>
       <c r="D47" s="7">
-        <v>11147</v>
+        <v>9411</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="H47" s="7">
         <v>6</v>
       </c>
       <c r="I47" s="7">
-        <v>4636</v>
+        <v>3813</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>156</v>
+        <v>279</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="M47" s="7">
         <v>17</v>
       </c>
       <c r="N47" s="7">
-        <v>15784</v>
+        <v>13223</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C48" s="7">
         <v>47</v>
       </c>
       <c r="D48" s="7">
-        <v>51489</v>
+        <v>43108</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>74</v>
+        <v>284</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="H48" s="7">
         <v>48</v>
       </c>
       <c r="I48" s="7">
-        <v>43929</v>
+        <v>35995</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>290</v>
+        <v>21</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M48" s="7">
         <v>95</v>
       </c>
       <c r="N48" s="7">
-        <v>95418</v>
+        <v>79103</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C49" s="7">
         <v>171</v>
       </c>
       <c r="D49" s="7">
-        <v>188735</v>
+        <v>159294</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="H49" s="7">
         <v>214</v>
       </c>
       <c r="I49" s="7">
-        <v>173635</v>
+        <v>143343</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M49" s="7">
         <v>385</v>
       </c>
       <c r="N49" s="7">
-        <v>362370</v>
+        <v>302638</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C50" s="7">
         <v>532</v>
       </c>
       <c r="D50" s="7">
-        <v>606221</v>
+        <v>715365</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H50" s="7">
         <v>792</v>
       </c>
       <c r="I50" s="7">
-        <v>642776</v>
+        <v>531646</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M50" s="7">
         <v>1324</v>
       </c>
       <c r="N50" s="7">
-        <v>1248997</v>
+        <v>1247011</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,46 +4008,46 @@
         <v>761</v>
       </c>
       <c r="D51" s="7">
-        <v>857593</v>
+        <v>927177</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H51" s="7">
         <v>1061</v>
       </c>
       <c r="I51" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M51" s="7">
         <v>1822</v>
       </c>
       <c r="N51" s="7">
-        <v>1723265</v>
+        <v>1642569</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,46 +4061,46 @@
         <v>11</v>
       </c>
       <c r="D52" s="7">
-        <v>12031</v>
+        <v>12056</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>315</v>
+        <v>34</v>
       </c>
       <c r="H52" s="7">
         <v>16</v>
       </c>
       <c r="I52" s="7">
-        <v>12767</v>
+        <v>11948</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="M52" s="7">
         <v>27</v>
       </c>
       <c r="N52" s="7">
-        <v>24798</v>
+        <v>24004</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>201</v>
+        <v>312</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>317</v>
+        <v>238</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>30</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,199 +4112,199 @@
         <v>43</v>
       </c>
       <c r="D53" s="7">
-        <v>38945</v>
+        <v>37186</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>318</v>
+        <v>149</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>319</v>
+        <v>64</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>320</v>
+        <v>237</v>
       </c>
       <c r="H53" s="7">
         <v>30</v>
       </c>
       <c r="I53" s="7">
-        <v>21977</v>
+        <v>19952</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>321</v>
+        <v>142</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>319</v>
+        <v>60</v>
       </c>
       <c r="M53" s="7">
         <v>73</v>
       </c>
       <c r="N53" s="7">
-        <v>60922</v>
+        <v>57137</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>323</v>
+        <v>69</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>143</v>
+        <v>313</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C54" s="7">
         <v>183</v>
       </c>
       <c r="D54" s="7">
-        <v>195992</v>
+        <v>184619</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="H54" s="7">
         <v>227</v>
       </c>
       <c r="I54" s="7">
-        <v>168934</v>
+        <v>152932</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="M54" s="7">
         <v>410</v>
       </c>
       <c r="N54" s="7">
-        <v>364925</v>
+        <v>337550</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C55" s="7">
         <v>729</v>
       </c>
       <c r="D55" s="7">
-        <v>726527</v>
+        <v>685652</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="H55" s="7">
         <v>1138</v>
       </c>
       <c r="I55" s="7">
-        <v>749876</v>
+        <v>731326</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="M55" s="7">
         <v>1867</v>
       </c>
       <c r="N55" s="7">
-        <v>1476403</v>
+        <v>1416978</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C56" s="7">
         <v>2384</v>
       </c>
       <c r="D56" s="7">
-        <v>2385155</v>
+        <v>2514931</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="H56" s="7">
         <v>3918</v>
       </c>
       <c r="I56" s="7">
-        <v>2828922</v>
+        <v>2722349</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="M56" s="7">
         <v>6302</v>
       </c>
       <c r="N56" s="7">
-        <v>5214077</v>
+        <v>5237280</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,51 +4316,51 @@
         <v>3350</v>
       </c>
       <c r="D57" s="7">
-        <v>3358650</v>
+        <v>3434444</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H57" s="7">
         <v>5329</v>
       </c>
       <c r="I57" s="7">
-        <v>3782476</v>
+        <v>3638506</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M57" s="7">
         <v>8679</v>
       </c>
       <c r="N57" s="7">
-        <v>7141126</v>
+        <v>7072950</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
